--- a/kategoriler.xlsx
+++ b/kategoriler.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
     <sheet name="Attributes" sheetId="2" r:id="rId2"/>
+    <sheet name="eksik-default-gorseller" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -400,7 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -2386,7 +2387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -5562,4 +5563,7128 @@
     <ignoredError numberStoredAsText="1" sqref="A1:J99"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A1422"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>slug</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>aksesuarlar/balik/akvaryum</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>aksesuarlar/balik/akvaryum-canli-bitki</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>aksesuarlar/balik/akvaryum-dekorasyon</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>aksesuarlar/balik/akvaryum-malzemeleri</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>aksesuarlar/bocekler/kovan-ve-yuva</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>aksesuarlar/buyukbas-ve-kucukbas</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>aksesuarlar/kedi/barinma-ve-tasima</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>aksesuarlar/kedi/giyim</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>aksesuarlar/kedi/guvenlik</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>aksesuarlar/kedi/mama-ve-su-kabi</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>aksesuarlar/kedi/oyun-ve-tirmalama</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>aksesuarlar/kedi/temizlik-ve-bakim</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>aksesuarlar/kedi/tuvalet-ve-kum</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>aksesuarlar/kemirgen/aksesuar</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>aksesuarlar/kemirgen/kafes</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>aksesuarlar/kopek/barinma</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>aksesuarlar/kopek/beslenme</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>aksesuarlar/kopek/giyim</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>aksesuarlar/kopek/oyuncak</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>aksesuarlar/kopek/tasima</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>aksesuarlar/kopek/temizlik</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>aksesuarlar/kumes-hayvanlari/ekipman</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>aksesuarlar/kumes-hayvanlari/kafes-ve-kumes</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>aksesuarlar/kus/aksesuar</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>aksesuarlar/kus/kafes</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>aksesuarlar/surungen/aksesuar</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>aksesuarlar/surungen/kafes-ve-akvaryum</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>alt-kategori/alt-kategori/alt-kategori</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>anne-bebek-ani-kutlama</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>anne-bebek-banyo-urunleri</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>anne-bebek-bebek-bezi</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>anne-bebek-bebek-giyim</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>anne-bebek-bebek-oyuncaklari</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>anne-bebek-beslenme</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>anne-bebek-emzirme</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>anne-bebek-ev-tekstili</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>anne-bebek-guvenlik</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>anne-bebek-mobilya</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>anne-bebek-oda-susu</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>anne-bebek-saglik-hijyen</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>anne-bebek-tasima</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>antika</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>arazi-suv-pickup</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>arsa-devren-kiralik</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>arsa-kat-karsiligi-satilik</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>arsa-kiralik</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>arsa-satilik</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>atv</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>avukatlik-ve-hukuki-danismanlik/avukat</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>avukatlik-ve-hukuki-danismanlik/avukat-katibi</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>avukatlik-ve-hukuki-danismanlik/hukuk-musaviri</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>avukatlik-ve-hukuki-danismanlik/sirket-avukati</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>avukatlik-ve-hukuki-danismanlik/stajyer-avukat</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>bilgisayar-aksesuarlar-bakim-onarim-urunleri</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>bilgisayar-aksesuarlar-cd-dvd-cantasi</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>bilgisayar-aksesuarlar-kablo-tutucu</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>bilgisayar-aksesuarlar-kulaklik-standi</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>bilgisayar-aksesuarlar-mousepad</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>bilgisayar-aksesuarlar-sunum-kumandasi</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>bilgisayar-barkod-cihazi-el-terminali</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>bilgisayar-dizustu-notebook-laptop</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>bilgisayar-domain-hosting-yazilim-domain-alan-adi</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>bilgisayar-domain-hosting-yazilim-hosting</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>bilgisayar-domain-hosting-yazilim-kabin</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>bilgisayar-domain-hosting-yazilim-yazilim</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>bilgisayar-donanim-ag-karti</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>bilgisayar-donanim-anakart</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>bilgisayar-donanim-ariza-tespit-karti</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>bilgisayar-donanim-blu-ray-surucu-yazici</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>bilgisayar-donanim-cd-surucu-yazici</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>bilgisayar-donanim-disket-surucu</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>bilgisayar-donanim-dvd-surucu-yazici</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>bilgisayar-donanim-ekran-karti</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>bilgisayar-donanim-fan-sogutucu</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>bilgisayar-donanim-guc-kaynagi</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>bilgisayar-donanim-guc-kaynagi-test-cihazi</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>bilgisayar-donanim-harddisk</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>bilgisayar-donanim-harddisk-dahili</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>bilgisayar-donanim-isiklandirma</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>bilgisayar-donanim-islemci</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>bilgisayar-donanim-kasa</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>bilgisayar-donanim-mining-ekipmanlari</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>bilgisayar-donanim-pci-express-kartlar</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>bilgisayar-donanim-pci-kartlar</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>bilgisayar-donanim-pcmcia-kartlar</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>bilgisayar-donanim-ram-bellek</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>bilgisayar-donanim-ses-karti</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>bilgisayar-donanim-ssd-dahili</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>bilgisayar-donanim-ssd-solid-state-drive</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>bilgisayar-donanim-tv-video-karti</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>bilgisayar-donanim-yedek-parca-adaptor</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>bilgisayar-donanim-yedek-parca-ag-karti</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>bilgisayar-donanim-yedek-parca-anakart</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>bilgisayar-donanim-yedek-parca-anten</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>bilgisayar-donanim-yedek-parca-arizali-laptop-netbook</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>bilgisayar-donanim-yedek-parca-batarya</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>bilgisayar-donanim-yedek-parca-bios-pili</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>bilgisayar-donanim-yedek-parca-bluetooth-karti</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>bilgisayar-donanim-yedek-parca-dahili-hoparlor</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>bilgisayar-donanim-yedek-parca-dahili-kamera</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>bilgisayar-donanim-yedek-parca-ekran</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>bilgisayar-donanim-yedek-parca-ekran-karti</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>bilgisayar-donanim-yedek-parca-flex-kablo</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>bilgisayar-donanim-yedek-parca-invertor</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>bilgisayar-donanim-yedek-parca-kasa-parcalari</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>bilgisayar-donanim-yedek-parca-klavye</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>bilgisayar-donanim-yedek-parca-mentese</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>bilgisayar-donanim-yedek-parca-modem</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>bilgisayar-donanim-yedek-parca-parmak-izi-okuyucu</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>bilgisayar-donanim-yedek-parca-ses-karti</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>bilgisayar-donanim-yedek-parca-sogutucu-fan</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>bilgisayar-donanim-yedek-parca-soket</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>bilgisayar-donanim-yedek-parca-touch-pad</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>bilgisayar-donanim-yedek-parca-yonga-seti</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>bilgisayar-grafik-tablet</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>bilgisayar-grafik-yukseltici</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>bilgisayar-harddisk-kutusu</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>bilgisayar-harici-cd-surucu</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>bilgisayar-harici-disket-surucu</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>bilgisayar-harici-dvd-surucu</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>bilgisayar-harici-harddisk</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>bilgisayar-hoparlor-ses-sistemi</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>bilgisayar-kablo-cevirici</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>bilgisayar-kart-okuyucu</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>bilgisayar-kesintisiz-guc-kaynagi-ups</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>bilgisayar-klavye</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>bilgisayar-kulaklik-mikrofon</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>bilgisayar-kvm-donusturucu</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>bilgisayar-masaustu</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>bilgisayar-modem-ag-urunleri-access-point</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>bilgisayar-modem-ag-urunleri-adsl-modem</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>bilgisayar-modem-ag-urunleri-ag-adaptoru</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>bilgisayar-modem-ag-urunleri-mobil-modem</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>bilgisayar-modem-ag-urunleri-router</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>bilgisayar-modem-ag-urunleri-sinyal-yukselteci</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>bilgisayar-modem-ag-urunleri-switch-hub-splitter</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>bilgisayar-modem-ag-urunleri-uydunet-kablonet-modem</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>bilgisayar-modem-ag-urunleri-vdsl-modem</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>bilgisayar-modem-ag-urunleri-voip-gateway</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>bilgisayar-monitor-crt-monitor-tuplu</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>bilgisayar-monitor-led-lcd-monitor</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>bilgisayar-monitor-monitor-aksesuarlari</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>bilgisayar-mouse</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>bilgisayar-mouse-klavye-seti</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>bilgisayar-sunucu-server-donanim</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>bilgisayar-sunucu-server-kabin</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>bilgisayar-sunucu-server-sunucular</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>bilgisayar-tablet</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>bilgisayar-tasinabilir-ssd</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>bilgisayar-usb-bellek</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>bilgisayar-usb-coklayici</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>bilgisayar-webcam</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-3d-tarayici</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-3d-yazici</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-baski-makineleri</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-cd-baski-makinesi</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-cok-fonksiyonlu-yazicilar</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-duvar-yazicisi</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-ekipman-yedek-parca</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-filament</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-fis-yazicisi</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-kartus</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-lazer-gravur-makinesi</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-lazer-yazicilar</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-murekkep</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-nokta-vuruslu-yazicilar</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-plastik-kart-yazicisi</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-plotter</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-puskurtmeli-yazicilar</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-serit</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-tarayici</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-tasinabilir-yazicilar</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-termal-ribon</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-termal-yazicilar</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>bilgisayar-yazici-tarayici-plotter-toner</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>bilgisayar-yedek-parca-adaptor</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>bilgisayar-yedek-parca-anakart</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>bilgisayar-yedek-parca-arizali-tablet</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>bilgisayar-yedek-parca-batarya-pil</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>bilgisayar-yedek-parca-ekran</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>bilgisayar-yedek-parca-kablo-flexi-film</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>bilgisayar-yedek-parca-kasa-parcalari</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>bina-kiralik</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>bina-satilik</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>cep-telefonu-aksesuar-akilli-bileklik</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>cep-telefonu-aksesuar-akilli-gozluk</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>cep-telefonu-aksesuar-akilli-tus</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>cep-telefonu-aksesuar-akilli-yuzuk</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>cep-telefonu-aksesuar-aksesuar-bluetooth-kulaklik</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>cep-telefonu-aksesuar-aksesuar-kablolu-kulaklik</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>cep-telefonu-aksesuar-aksesuar-yedek-parca</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>cep-telefonu-aksesuar-arac-ici-tutucu</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>cep-telefonu-aksesuar-bakim-onarim-urunleri</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>cep-telefonu-aksesuar-bluetooth-takip-cihazi</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>cep-telefonu-aksesuar-bluetooth-urunler</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>cep-telefonu-aksesuar-bos-kutu</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>cep-telefonu-aksesuar-cevirici-donusturucu</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>cep-telefonu-aksesuar-dock-stand</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>cep-telefonu-aksesuar-ekran-koruyucu</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>cep-telefonu-aksesuar-giyilebilir-teknoloji</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>cep-telefonu-aksesuar-hafiza-karti</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>cep-telefonu-aksesuar-hoparlor-harici</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>cep-telefonu-aksesuar-kablo-aparat</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>cep-telefonu-aksesuar-kalem-stylus</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>cep-telefonu-aksesuar-kapak</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>cep-telefonu-aksesuar-kilif</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>cep-telefonu-aksesuar-lens</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>cep-telefonu-aksesuar-modul-kamera</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>cep-telefonu-aksesuar-oyun-aksesuarlari</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>cep-telefonu-aksesuar-sarj-cihazi</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>cep-telefonu-aksesuar-selfie-cubugu</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>cep-telefonu-aksesuar-sinyal-guclendirici</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>cep-telefonu-aksesuar-sticker-cikartma</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>cep-telefonu-aksesuar-vr-gozluk</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>cep-telefonu-aksesuar-yedek-parca-anakart</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>cep-telefonu-aksesuar-yedek-parca-anten</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>cep-telefonu-aksesuar-yedek-parca-batarya</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>cep-telefonu-aksesuar-yedek-parca-dahili-flas</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>cep-telefonu-aksesuar-yedek-parca-dahili-hoparlor-kulaklik</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>cep-telefonu-aksesuar-yedek-parca-dahili-kamera</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>cep-telefonu-aksesuar-yedek-parca-dahili-mikrofon</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>cep-telefonu-aksesuar-yedek-parca-ekran</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>cep-telefonu-aksesuar-yedek-parca-fleks-kablo</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>cep-telefonu-aksesuar-yedek-parca-kasa-kapak</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>cep-telefonu-aksesuar-yedek-parca-sim-kart-yuvasi</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>cep-telefonu-aksesuar-yedek-parca-soket</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>cep-telefonu-aksesuar-yedek-parca-titresim-motoru</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>cep-telefonu-aksesuar-yedek-parca-tus</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>devre-mulk-satilik</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>egitim/cocuk-egitimi</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>egitim/fitness-egitmeni</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>egitim/kurumsal-egitim-ve-danismanlik</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>egitim/ogretmen</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>eglence-ve-aktivite/animator-ve-palyaco</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>eglence-ve-aktivite/fotografci</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>eglence-ve-aktivite/kameraman</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>eglence-ve-aktivite/muzisyen-ve-dj</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>eglence-ve-aktivite/oyuncu-ve-model</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>eglence-ve-aktivite/ses-ve-isik-teknisyeni</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>eglence-ve-aktivite/spor-faaliyetleri</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>elektrik-enerji-akaryakit-urunleri</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>elektrik-enerji-basincli-kaplar</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>elektrik-enerji-elektrik-elektronik</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>elektrik-enerji-gunes-paneli</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>elektrik-enerji-jenerator</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>elektrik-enerji-ruzgar-turbini</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>elektrik-enerji-su-turbini</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>elektrikli-ev-aletleri-ayak-isitici-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>elektrikli-ev-aletleri-beyaz-esya-ankastre-set</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>elektrikli-ev-aletleri-beyaz-esya-aspirator-davlumbaz</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>elektrikli-ev-aletleri-beyaz-esya-bulasik-makinesi</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>elektrikli-ev-aletleri-beyaz-esya-buzdolabi</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>elektrikli-ev-aletleri-beyaz-esya-camasir-kurutma-makinesi</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>elektrikli-ev-aletleri-beyaz-esya-camasir-makinesi</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>elektrikli-ev-aletleri-beyaz-esya-derin-dondurucu</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>elektrikli-ev-aletleri-beyaz-esya-firin</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>elektrikli-ev-aletleri-beyaz-esya-mikrodalga-firin</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>elektrikli-ev-aletleri-beyaz-esya-set-ustu-ocak</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>elektrikli-ev-aletleri-beyaz-esya-su-aritma-cihazi</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>elektrikli-ev-aletleri-beyaz-esya-su-sebili</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>elektrikli-ev-aletleri-beyaz-esya-yedek-parca-ekipman</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>elektrikli-ev-aletleri-dogalgaz-sobasi-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>elektrikli-ev-aletleri-elektrikli-isitici-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>elektrikli-ev-aletleri-elektrikli-somine-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>elektrikli-ev-aletleri-fancoil-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>elektrikli-ev-aletleri-fanli-isitici-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>elektrikli-ev-aletleri-hava-perdesi-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>elektrikli-ev-aletleri-hava-sogutucu-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>elektrikli-ev-aletleri-hava-temizleme-cihazi-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>elektrikli-ev-aletleri-havalandirma-fani-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>elektrikli-ev-aletleri-isi-pompasi-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>elektrikli-ev-aletleri-isitma-sogutma-havalandirma-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>elektrikli-ev-aletleri-isitma-sogutma-havalandirma-klima</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>elektrikli-ev-aletleri-isitma-sogutma-havalandirma-kombi</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>elektrikli-ev-aletleri-isitma-sogutma-havalandirma-yedek-parca-ekipman</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>elektrikli-ev-aletleri-katalitik-soba-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>elektrikli-ev-aletleri-konvektor-panel-isitici-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-baskul-tarti</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-blender</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-buharli-pisirici</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-buharli-temizlik-makinesi</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-buz-makinesi</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-cam-silme-makinesi</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-cay-makinesi</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-cikolata-selalesi</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-cop-ogutme-makinesi</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-dikey-sarjli-supurge</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-dikis-makinesi</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-dondurma-makinesi</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-ekmek-kizartma-makinesi</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-ekmek-yapma-makinesi</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-elektrikli-izgara</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-elektrikli-pisirici</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-elektrikli-supurge-yatay</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-fritoz-airfryer</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-gida-kurutucu</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-hali-yikama-makinesi</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-hamur-yogurma-makinesi</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-kahve-makinesi</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-kati-meyve-sikacagi</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-kiyma-makinesi</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-mikser</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-misir-patlatma-makinesi</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-mutfak-robotu</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-mutfak-tartisi</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-narenciye-sikacagi</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-pamuk-seker-makinesi</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-robot-supurge</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-rondo-dograyici</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-su-isitici-kettle</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-tost-makinesi</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-utu</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-utu-masasi</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-vakum-makinesi</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-waffle-makinesi</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-yedek-parca-ekipman</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-yogurt-makinesi</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>elektrikli-ev-aletleri-kucuk-ev-aletleri-yumurta-pisirici</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>elektrikli-ev-aletleri-nem-alma-cihazi-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>elektrikli-ev-aletleri-sofben-termosifon-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>elektrikli-ev-aletleri-tavan-pervanesi-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>elektrikli-ev-aletleri-toplu-satis-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>elektrikli-ev-aletleri-vantilator-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>elektrikli-ev-aletleri-yagli-radyator-kat-kaloriferi</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>ev-dekorasyon-aydinlatma-abajur-masa-lambasi</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>ev-dekorasyon-aydinlatma-aplik</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>ev-dekorasyon-aydinlatma-avize-sarkit</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>ev-dekorasyon-aydinlatma-calisma-lambasi</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>ev-dekorasyon-aydinlatma-dur</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>ev-dekorasyon-aydinlatma-gaz-lambasi</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>ev-dekorasyon-aydinlatma-gece-lambasi</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>ev-dekorasyon-aydinlatma-lambader</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>ev-dekorasyon-dekoratif-urunler-ayna</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>ev-dekorasyon-dekoratif-urunler-biblo-figur-obje</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>ev-dekorasyon-dekoratif-urunler-cerceve</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>ev-dekorasyon-dekoratif-urunler-dekoratif-sabun</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>ev-dekorasyon-dekoratif-urunler-duvar-kagidi</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>ev-dekorasyon-dekoratif-urunler-duvar-urunleri</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>ev-dekorasyon-dekoratif-urunler-kase-tabak</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>ev-dekorasyon-dekoratif-urunler-kul-tablasi</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>ev-dekorasyon-dekoratif-urunler-mum</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>ev-dekorasyon-dekoratif-urunler-mumluk-samdan</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>ev-dekorasyon-dekoratif-urunler-nargile</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>ev-dekorasyon-dekoratif-urunler-sepet</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>ev-dekorasyon-dekoratif-urunler-tablo</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>ev-dekorasyon-dekoratif-urunler-taslar</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>ev-dekorasyon-dekoratif-urunler-tutsu-tutsuluk</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>ev-dekorasyon-dekoratif-urunler-vazo-ciceklik</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>ev-dekorasyon-dekoratif-urunler-yapay-cicek</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>ev-dekorasyon-el-isi-sanat-ahsap</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>ev-dekorasyon-el-isi-sanat-baski-gravur</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>ev-dekorasyon-el-isi-sanat-cam-mozaik-cini</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>ev-dekorasyon-el-isi-sanat-dantel</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>ev-dekorasyon-el-isi-sanat-dikis-nakis</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>ev-dekorasyon-el-isi-sanat-etamin-kanavice</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>ev-dekorasyon-el-isi-sanat-geleneksel-turk-sanatlari</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>ev-dekorasyon-el-isi-sanat-heykel</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>ev-dekorasyon-el-isi-sanat-orgu</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>ev-dekorasyon-el-isi-sanat-patchwork</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>ev-dekorasyon-el-isi-sanat-resim</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>ev-dekorasyon-el-isi-sanat-seramik</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>ev-dekorasyon-el-isi-sanat-tas</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>ev-dekorasyon-ev-tekstili-banyo-tekstili</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>ev-dekorasyon-ev-tekstili-bohca-hurc</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>ev-dekorasyon-ev-tekstili-duru</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>ev-dekorasyon-ev-tekstili-hali-kilim</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>ev-dekorasyon-ev-tekstili-koltuk-ortusu</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>ev-dekorasyon-ev-tekstili-kumas-iplik</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>ev-dekorasyon-ev-tekstili-mutfak-tekstili</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>ev-dekorasyon-ev-tekstili-nevresim-uyku-seti</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>ev-dekorasyon-ev-tekstili-ortu</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>ev-dekorasyon-ev-tekstili-perde-tul</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>ev-dekorasyon-ev-tekstili-seccade</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>ev-dekorasyon-ev-tekstili-yastik-minder</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>ev-dekorasyon-ev-tekstili-yatak-ortusu</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>ev-dekorasyon-ev-tekstili-yorgan-battaniye</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>ev-dekorasyon-ev-tekstili-yun-kece-pamuk</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>ev-dekorasyon-mobilya-cocuk-genc-odasi-arabali-yatak</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>ev-dekorasyon-mobilya-cocuk-genc-odasi-bilgisayar-masasi</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>ev-dekorasyon-mobilya-cocuk-genc-odasi-calisma-masasi</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>ev-dekorasyon-mobilya-cocuk-genc-odasi-cocuk-odasi-takimi-genc-odasi-takimi</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>ev-dekorasyon-mobilya-cocuk-genc-odasi-dolap</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>ev-dekorasyon-mobilya-cocuk-genc-odasi-karyola-yatak</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>ev-dekorasyon-mobilya-cocuk-genc-odasi-kitaplik</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>ev-dekorasyon-mobilya-cocuk-genc-odasi-koltuk</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>ev-dekorasyon-mobilya-cocuk-genc-odasi-komodin</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>ev-dekorasyon-mobilya-cocuk-genc-odasi-ranza</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>ev-dekorasyon-mobilya-cocuk-genc-odasi-sandalye</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>ev-dekorasyon-mobilya-cocuk-genc-odasi-sifonyer</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>ev-dekorasyon-mobilya-mutfak-ekmek-dolabi</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>ev-dekorasyon-mobilya-mutfak-erzak-dolabi</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>ev-dekorasyon-mobilya-mutfak-firin-dolabi</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>ev-dekorasyon-mobilya-mutfak-hazir-mutfak</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>ev-dekorasyon-mobilya-mutfak-kahve-kosesi</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>ev-dekorasyon-mobilya-mutfak-kiler-dolabi</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>ev-dekorasyon-mobilya-mutfak-kose-takimi</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>ev-dekorasyon-mobilya-mutfak-masa-takimi</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>ev-dekorasyon-mobilya-mutfak-mutfak-dolabi</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>ev-dekorasyon-mobilya-mutfak-mutfak-masasi</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>ev-dekorasyon-mobilya-mutfak-raf-terek</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>ev-dekorasyon-mobilya-mutfak-sandalye</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>ev-dekorasyon-mobilya-mutfak-servis-arabasi</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>ev-dekorasyon-mobilya-mutfak-yer-sofrasi</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>ev-dekorasyon-mobilya-oturma-odasi-salon-berjer-tekli-koltuk</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>ev-dekorasyon-mobilya-oturma-odasi-salon-cekyat-kanepe</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>ev-dekorasyon-mobilya-oturma-odasi-salon-josefin</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>ev-dekorasyon-mobilya-oturma-odasi-salon-koltuk-takimi</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>ev-dekorasyon-mobilya-oturma-odasi-salon-kose-koltuk-takimi</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>ev-dekorasyon-mobilya-oturma-odasi-salon-salon-takimi</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>ev-dekorasyon-mobilya-oturma-odasi-salon-tv-koltugu</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>ev-dekorasyon-mobilya-oturma-odasi-salon-tv-unitesi</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>ev-dekorasyon-mobilya-tamamlayici-urunler-antre</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>ev-dekorasyon-mobilya-tamamlayici-urunler-oturma-odasi-salon</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>ev-dekorasyon-mobilya-tamamlayici-urunler-yatak-odasi</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>ev-dekorasyon-mobilya-yatak-odasi-baza</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>ev-dekorasyon-mobilya-yatak-odasi-etajer</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>ev-dekorasyon-mobilya-yatak-odasi-gardirop</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>ev-dekorasyon-mobilya-yatak-odasi-karyola</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>ev-dekorasyon-mobilya-yatak-odasi-koltuk</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>ev-dekorasyon-mobilya-yatak-odasi-komodin</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>ev-dekorasyon-mobilya-yatak-odasi-makyaj-masasi</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>ev-dekorasyon-mobilya-yatak-odasi-yatak</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>ev-dekorasyon-mobilya-yatak-odasi-yatak-odasi-takimi</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>ev-dekorasyon-mobilya-yemek-odasi-bufe-vitrin</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>ev-dekorasyon-mobilya-yemek-odasi-gumusluk</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>ev-dekorasyon-mobilya-yemek-odasi-konsol</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>ev-dekorasyon-mobilya-yemek-odasi-masa</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>ev-dekorasyon-mobilya-yemek-odasi-sandalye</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>ev-dekorasyon-mobilya-yemek-odasi-saraplik</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>ev-dekorasyon-mobilya-yemek-odasi-yemek-odasi-takimi</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>ev-dekorasyon-mutfak-gerecleri-bardak</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>ev-dekorasyon-mutfak-gerecleri-catal-kasik-bicak</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>ev-dekorasyon-mutfak-gerecleri-caydanlik</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>ev-dekorasyon-mutfak-gerecleri-cezve</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>ev-dekorasyon-mutfak-gerecleri-duduklu-tencere</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>ev-dekorasyon-mutfak-gerecleri-fincan</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>ev-dekorasyon-mutfak-gerecleri-kahvalti-piknik-seti</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>ev-dekorasyon-mutfak-gerecleri-kek-kurabiye-kalibi</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>ev-dekorasyon-mutfak-gerecleri-kupa</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>ev-dekorasyon-mutfak-gerecleri-saklama-ekipmanlari</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>ev-dekorasyon-mutfak-gerecleri-tabak-kase-tepsi</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>ev-dekorasyon-mutfak-gerecleri-takimlar</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>ev-dekorasyon-mutfak-gerecleri-tava</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>ev-dekorasyon-mutfak-gerecleri-tencere</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>ev-dekorasyon-mutfak-gerecleri-termos-surahi-sise</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>ev-dekorasyon-mutfak-gerecleri-tuzluk-biberlik-baharatlik</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>ev-dekorasyon-mutfak-gerecleri-yardimci-urunler</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>ev-dekorasyon-temizlik-malzemeleri-bez</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>ev-dekorasyon-temizlik-malzemeleri-cop-kutusu-torbasi</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>ev-dekorasyon-temizlik-malzemeleri-deterjan</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>ev-dekorasyon-temizlik-malzemeleri-eldiven</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>ev-dekorasyon-temizlik-malzemeleri-firca-supurge</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>ev-dekorasyon-temizlik-malzemeleri-kagit-urunler</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>ev-dekorasyon-temizlik-malzemeleri-mop-cesitleri</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>ev-dekorasyon-temizlik-malzemeleri-oda-kokusu-koku-giderici</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>ev-dekorasyon-temizlik-malzemeleri-sunger-ovma-teli</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>ev-dekorasyon-temizlik-malzemeleri-supurge-toz-torbasi</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>ev-dekorasyon-temizlik-malzemeleri-teslim</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>ev-elektronigi-akilli-ev-sistemleri-ag-sistemleri</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>ev-elektronigi-akilli-ev-sistemleri-akilli-ev-asistanlari</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>ev-elektronigi-akilli-ev-sistemleri-enerji-ve-iklimlendirme</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>ev-elektronigi-akilli-ev-sistemleri-kontrol-uniteleri</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v>ev-elektronigi-ev-muzik-sistemleri-aksesuar-yedek-parca</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>ev-elektronigi-ev-muzik-sistemleri-amfi</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>ev-elektronigi-ev-muzik-sistemleri-cd-calar-kaydedici</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>ev-elektronigi-ev-muzik-sistemleri-dac</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>ev-elektronigi-ev-muzik-sistemleri-deck-kasetcalar</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>ev-elektronigi-ev-muzik-sistemleri-ekolayzer</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>ev-elektronigi-ev-muzik-sistemleri-hoparlor</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>ev-elektronigi-ev-muzik-sistemleri-makarali-teyp</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>ev-elektronigi-ev-muzik-sistemleri-muzik-seti-teyp</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v>ev-elektronigi-ev-muzik-sistemleri-network-player</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v>ev-elektronigi-ev-muzik-sistemleri-pikap</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v>ev-elektronigi-ev-muzik-sistemleri-tuner</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>ev-elektronigi-ev-sinema-sistemleri-aksesuar-yedek-parca</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>ev-elektronigi-ev-sinema-sistemleri-av-receiver</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v>ev-elektronigi-ev-sinema-sistemleri-blu-ray-oynatici</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>ev-elektronigi-ev-sinema-sistemleri-dvd-oynatici</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>ev-elektronigi-ev-sinema-sistemleri-komple-setler</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v>ev-elektronigi-ev-sinema-sistemleri-media-player</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>ev-elektronigi-ev-sinema-sistemleri-projeksiyon-cihazi</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>ev-elektronigi-ev-sinema-sistemleri-vcd-oynatici</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v>ev-elektronigi-ev-sinema-sistemleri-video-kaset-oynatici</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>ev-elektronigi-guvenlik-sistemleri-deprem-alarmi</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>ev-elektronigi-guvenlik-sistemleri-hirsiz-alarm</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v>ev-elektronigi-guvenlik-sistemleri-kamera-cctv</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>ev-elektronigi-guvenlik-sistemleri-kapi-kontrol</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>ev-elektronigi-guvenlik-sistemleri-yangin-alarmi</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v>ev-elektronigi-tasinabilir-ses-sistemleri-aksesuar-yedek-parca</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>ev-elektronigi-tasinabilir-ses-sistemleri-alarm-saatli-radyo</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>ev-elektronigi-tasinabilir-ses-sistemleri-bluetooth-hoparlor</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>ev-elektronigi-tasinabilir-ses-sistemleri-kulaklik</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>ev-elektronigi-tasinabilir-ses-sistemleri-mp3-calar</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>ev-elektronigi-tasinabilir-ses-sistemleri-radyo</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>ev-elektronigi-tasinabilir-ses-sistemleri-ses-kayit-cihazi</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v>ev-elektronigi-tasinabilir-ses-sistemleri-walkman-discman</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>ev-elektronigi-televizyon-led-lcd-tv</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>ev-elektronigi-televizyon-oled-tv</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>ev-elektronigi-televizyon-yedek-parca</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>ev-elektronigi-uydu-ekipmanlari-anten</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>ev-elektronigi-uydu-ekipmanlari-canak-anten</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>ev-elektronigi-uydu-ekipmanlari-diseqc</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>ev-elektronigi-uydu-ekipmanlari-kablo</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>ev-elektronigi-uydu-ekipmanlari-konnektor</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>ev-elektronigi-uydu-ekipmanlari-lnb</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>ev-elektronigi-uydu-ekipmanlari-modul-kart</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>ev-elektronigi-uydu-ekipmanlari-uydu-alicisi-receiver</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>ev-elektronigi-uydu-ekipmanlari-uydu-bulucu</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>ev-elektronigi-uydu-ekipmanlari-uydu-kumandasi</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>ev-elektronigi-uydu-ekipmanlari-uydu-santrali</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>ev-elektronigi-uydu-ekipmanlari-uydu-telefonu</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>evcil-hayvanlar/guinea-pig-kobay</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>evcil-hayvanlar/hamster</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>evcil-hayvanlar/kedi</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>evcil-hayvanlar/kopek</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>evcil-hayvanlar/kus</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>fotograf-kamera-dijital-fotograf-makinesi-aynasiz</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>fotograf-kamera-dijital-fotograf-makinesi-dslr</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>fotograf-kamera-dijital-fotograf-makinesi-kompakt</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>fotograf-kamera-dijital-fotograf-makinesi-orta-format</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>fotograf-kamera-lens-filtre-filtreler</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>fotograf-kamera-lens-filtre-lens-aksesuarlari-filtre-adaptoru</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>fotograf-kamera-lens-filtre-lens-aksesuarlari-lens-adaptoru</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>fotograf-kamera-lens-filtre-lens-aksesuarlari-lens-kapagi</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>fotograf-kamera-lens-filtre-lens-aksesuarlari-lens-kilifi</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>fotograf-kamera-lens-filtre-lens-aksesuarlari-makro-uzatma-tupu</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>fotograf-kamera-lens-filtre-lens-aksesuarlari-parasoley</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>fotograf-kamera-lens-filtre-lens-aksesuarlari-teleconverter</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>fotograf-kamera-lens-filtre-lens-aksesuarlari-temizleme-malzemeleri</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>fotograf-kamera-lens-filtre-lensler</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>fotograf-kamera-video-kamera-aksiyon-kamera</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v>fotograf-kamera-video-kamera-analog-fotograf-makinesi</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>fotograf-kamera-video-kamera-dijital-kamera-entegre-flash-bellek</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>fotograf-kamera-video-kamera-dijital-kamera-hdd-harddiskli</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>fotograf-kamera-video-kamera-dijital-kamera-sd-ms-karta-kayit</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>fotograf-kamera-video-kamera-durbun</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>fotograf-kamera-video-kamera-gizli-kamera</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>fotograf-kamera-video-kamera-kiralik-urunler</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>fotograf-kamera-video-kamera-mikroskop</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v>fotograf-kamera-video-kamera-studyo</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>fotograf-kamera-video-kamera-teleskop</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>fotograf-kamera-video-kamera-yedek-parca</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v>giyim-aksesuar-cocuk-giyim-ayakkabi</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>giyim-aksesuar-cocuk-giyim-elbise</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v>giyim-aksesuar-cocuk-giyim-esofman</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v>giyim-aksesuar-cocuk-giyim-etek</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v>giyim-aksesuar-cocuk-giyim-gomlek</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v>giyim-aksesuar-cocuk-giyim-hirka-yelek</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v>giyim-aksesuar-cocuk-giyim-ic-giyim</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v>giyim-aksesuar-cocuk-giyim-kazak-suveter</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v>giyim-aksesuar-cocuk-giyim-mayo-bikini</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v>giyim-aksesuar-cocuk-giyim-mont-ceket-kaban</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v>giyim-aksesuar-cocuk-giyim-pantolon-sort</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="str">
+        <v>giyim-aksesuar-cocuk-giyim-pijama</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="str">
+        <v>giyim-aksesuar-cocuk-giyim-sweatshirt</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
+        <v>giyim-aksesuar-cocuk-giyim-takim</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="str">
+        <v>giyim-aksesuar-cocuk-giyim-tisort</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="str">
+        <v>giyim-aksesuar-erkek-aksesuar</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="str">
+        <v>giyim-aksesuar-erkek-ayakkabi</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="str">
+        <v>giyim-aksesuar-erkek-giyim</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="str">
+        <v>giyim-aksesuar-erkek-ic-giyim</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="str">
+        <v>giyim-aksesuar-evlilik-dugun-aksesuar</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="str">
+        <v>giyim-aksesuar-evlilik-dugun-damatlik</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="str">
+        <v>giyim-aksesuar-evlilik-dugun-gelinlik</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="str">
+        <v>giyim-aksesuar-evlilik-dugun-kina-kiyafeti</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="str">
+        <v>giyim-aksesuar-evlilik-dugun-nisan-elbisesi</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="str">
+        <v>giyim-aksesuar-evlilik-dugun-sunnet-kiyafeti</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="str">
+        <v>giyim-aksesuar-kadin-aksesuar</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="str">
+        <v>giyim-aksesuar-kadin-ayakkabi</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="str">
+        <v>giyim-aksesuar-kadin-giyim</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="str">
+        <v>giyim-aksesuar-kadin-hamile-giyim</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="str">
+        <v>giyim-aksesuar-kadin-ic-giyim</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="str">
+        <v>giyim-aksesuar-kadin-tesettur-giyim</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="str">
+        <v>giyim-aksesuar-kostum-aksesuar</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="str">
+        <v>giyim-aksesuar-kostum-dans-kiyafeti</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="str">
+        <v>giyim-aksesuar-kostum-donem-kiyafeti</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="str">
+        <v>giyim-aksesuar-kostum-gosteri-kiyafeti</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="str">
+        <v>giyim-aksesuar-kostum-hayvan-kostumu</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="str">
+        <v>giyim-aksesuar-kostum-karakter-kostumu</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="str">
+        <v>giyim-aksesuar-kostum-korku-kostumu</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="str">
+        <v>giyim-aksesuar-kostum-maskot-kostumu</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="str">
+        <v>giyim-aksesuar-kostum-mezuniyet-kiyafeti</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="str">
+        <v>giyim-aksesuar-kostum-palyaco-kiyafeti</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="str">
+        <v>giyim-aksesuar-kostum-tarihsel-kostum</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="str">
+        <v>giyim-aksesuar-kostum-yilbasi-kiyafeti</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="str">
+        <v>giyim-aksesuar-kostum-yoresel-kostum</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="str">
+        <v>giyim-aksesuar-uniseks-aksesuar</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="str">
+        <v>giyim-aksesuar-uniseks-ayakkabi</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="str">
+        <v>giyim-aksesuar-uniseks-giyim</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="str">
+        <v>giyim-aksesuar-valiz-bavul-aksesuar</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="str">
+        <v>giyim-aksesuar-valiz-bavul-set</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="str">
+        <v>giyim-aksesuar-valiz-bavul-tekli</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="str">
+        <v>guzellik-ve-bakim/erkek-kuaforu</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="str">
+        <v>guzellik-ve-bakim/guzellik-uzmani</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="str">
+        <v>guzellik-ve-bakim/kadin-kuaforu</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="str">
+        <v>guzellik-ve-bakim/kalici-makyaj-uzmani</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="str">
+        <v>guzellik-ve-bakim/kas-ve-kirpik-uzmani</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="str">
+        <v>guzellik-ve-bakim/kedi-ve-kopek-kuaforu</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="str">
+        <v>guzellik-ve-bakim/makyoz</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="str">
+        <v>guzellik-ve-bakim/manikur-ve-pedikur-uzmani</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="str">
+        <v>guzellik-ve-bakim/masor-ve-masoz</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="str">
+        <v>hobi-oyuncak-aksiyon-figurleri</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="str">
+        <v>hobi-oyuncak-diecast-model</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="str">
+        <v>hobi-oyuncak-koleksiyon-kartlari</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="str">
+        <v>hobi-oyuncak-maket</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="str">
+        <v>hobi-oyuncak-masa-kutu-oyunlari</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="str">
+        <v>hobi-oyuncak-oyuncak</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="str">
+        <v>hobi-oyuncak-puzzle-yapboz</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="str">
+        <v>hobi-oyuncak-rc-araclar</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="str">
+        <v>hobi-oyuncak-ticari-oyun-urunleri</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="str">
+        <v>insaat-ve-yapi/asansor-ve-tasima-sistemleri</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="str">
+        <v>insaat-ve-yapi/beton-ve-tas-isleri</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="str">
+        <v>insaat-ve-yapi/cati-isleri</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="str">
+        <v>insaat-ve-yapi/demir-isleri</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="str">
+        <v>insaat-ve-yapi/duvar-kaplama-ve-boya-isleri</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="str">
+        <v>insaat-ve-yapi/elektrik-isleri</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="str">
+        <v>insan-kaynaklari/halkla-iliskiler-uzmani</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="str">
+        <v>insan-kaynaklari/idari-isler-sorumlusu</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="str">
+        <v>insan-kaynaklari/insan-kaynaklari-uzmani</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="str">
+        <v>is-yeri-devren-kiralik-acente</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="str">
+        <v>is-yeri-devren-kiralik-akaryakit-istasyonu</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="str">
+        <v>is-yeri-devren-kiralik-aktar-baharatci</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="str">
+        <v>is-yeri-devren-kiralik-anaokulu-kres</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="str">
+        <v>is-yeri-devren-kiralik-apartman-dairesi</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="str">
+        <v>is-yeri-devren-kiralik-arac-showroom-servis</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="str">
+        <v>is-yeri-devren-kiralik-atolye</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="str">
+        <v>is-yeri-devren-kiralik-avm-standi</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="str">
+        <v>is-yeri-devren-kiralik-balikci</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="str">
+        <v>is-yeri-devren-kiralik-bar</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="str">
+        <v>is-yeri-devren-kiralik-bijuteri</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="str">
+        <v>is-yeri-devren-kiralik-borekci</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="str">
+        <v>is-yeri-devren-kiralik-bufe</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="str">
+        <v>is-yeri-devren-kiralik-buro-ofis</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="str">
+        <v>is-yeri-devren-kiralik-camasirhane</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="str">
+        <v>is-yeri-devren-kiralik-cay-ocagi</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="str">
+        <v>is-yeri-devren-kiralik-cep-telefonu-dukkani</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="str">
+        <v>is-yeri-devren-kiralik-cicekci-fidanlik</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="str">
+        <v>is-yeri-devren-kiralik-ciftlik</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="str">
+        <v>is-yeri-devren-kiralik-depo-antrepo</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="str">
+        <v>is-yeri-devren-kiralik-dugun-salonu</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="str">
+        <v>is-yeri-devren-kiralik-dukkan-magaza</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="str">
+        <v>is-yeri-devren-kiralik-eczane-medikal</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="str">
+        <v>is-yeri-devren-kiralik-elektrikci-hirdavatci</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="str">
+        <v>is-yeri-devren-kiralik-elektronik-magazasi</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="str">
+        <v>is-yeri-devren-kiralik-enerji-santrali</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="str">
+        <v>is-yeri-devren-kiralik-etkinlik-performans-salonu</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="str">
+        <v>is-yeri-devren-kiralik-fabrika-uretim-tesisi</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="str">
+        <v>is-yeri-devren-kiralik-fotograf-studyosu</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="str">
+        <v>is-yeri-devren-kiralik-gece-kulubu-disko</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="str">
+        <v>is-yeri-devren-kiralik-giyim-magazasi</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="str">
+        <v>is-yeri-devren-kiralik-gozlukcu</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="str">
+        <v>is-yeri-devren-kiralik-hali-yikama</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="str">
+        <v>is-yeri-devren-kiralik-harita-g</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="str">
+        <v>is-yeri-devren-kiralik-huzur-evi</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="str">
+        <v>is-yeri-devren-kiralik-imalathane</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="str">
+        <v>is-yeri-devren-kiralik-internet-oyun-kafe</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="str">
+        <v>is-yeri-devren-kiralik-is-hani</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="str">
+        <v>is-yeri-devren-kiralik-is-hani-kati-ofisi</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="str">
+        <v>is-yeri-devren-kiralik-kafe</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="str">
+        <v>is-yeri-devren-kiralik-kantin</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="str">
+        <v>is-yeri-devren-kiralik-kasap</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="str">
+        <v>is-yeri-devren-kiralik-kir-kahvalti-bahcesi</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="str">
+        <v>is-yeri-devren-kiralik-kiraathane</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="str">
+        <v>is-yeri-devren-kiralik-kirtasiye</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="str">
+        <v>is-yeri-devren-kiralik-kozmetik-magazasi</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="str">
+        <v>is-yeri-devren-kiralik-kuafor-guzellik-merkezi</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="str">
+        <v>is-yeri-devren-kiralik-kurs-egitim-merkezi</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="str">
+        <v>is-yeri-devren-kiralik-kuru-temizleme</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="str">
+        <v>is-yeri-devren-kiralik-kuruyemisci</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="str">
+        <v>is-yeri-devren-kiralik-kuyumcu</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="str">
+        <v>is-yeri-devren-kiralik-lunapark</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="str">
+        <v>is-yeri-devren-kiralik-maden-ocagi</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="str">
+        <v>is-yeri-devren-kiralik-manav</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="str">
+        <v>is-yeri-devren-kiralik-market</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="str">
+        <v>is-yeri-devren-kiralik-matbaa</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="str">
+        <v>is-yeri-devren-kiralik-modaevi</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="str">
+        <v>is-yeri-devren-kiralik-muayenehane</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="str">
+        <v>is-yeri-devren-kiralik-nakliyat-kargo</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="str">
+        <v>is-yeri-devren-kiralik-nalbur</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="str">
+        <v>is-yeri-devren-kiralik-ogrenci-yurdu</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="str">
+        <v>is-yeri-devren-kiralik-okul-kurs</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="str">
+        <v>is-yeri-devren-kiralik-oto-servis-bakim</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="str">
+        <v>is-yeri-devren-kiralik-oto-yedek-parca</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="str">
+        <v>is-yeri-devren-kiralik-oto-yikama-kuafor</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="str">
+        <v>is-yeri-devren-kiralik-otopark-garaj</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="str">
+        <v>is-yeri-devren-kiralik-pastane-firin-tatlici</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="str">
+        <v>is-yeri-devren-kiralik-pazar-yeri</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="str">
+        <v>is-yeri-devren-kiralik-pet-shop</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="str">
+        <v>is-yeri-devren-kiralik-plaza-kati-ofisi</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="str">
+        <v>is-yeri-devren-kiralik-prova-kayit-studyosu</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="str">
+        <v>is-yeri-devren-kiralik-restoran-lokanta</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="str">
+        <v>is-yeri-devren-kiralik-saglik-merkezi</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="str">
+        <v>is-yeri-devren-kiralik-sans-oyunlari-bayisi</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="str">
+        <v>is-yeri-devren-kiralik-sarkuteri</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="str">
+        <v>is-yeri-devren-kiralik-sebze-meyve-hali</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="str">
+        <v>is-yeri-devren-kiralik-sinema-konferans-salonu</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="str">
+        <v>is-yeri-devren-kiralik-soguk-hava-deposu</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="str">
+        <v>is-yeri-devren-kiralik-spa-hamam-sauna</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="str">
+        <v>is-yeri-devren-kiralik-spor-tesisi</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="str">
+        <v>is-yeri-devren-kiralik-su-tup-bayi</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="str">
+        <v>is-yeri-devren-kiralik-taksi-duragi</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="str">
+        <v>is-yeri-devren-kiralik-tamirhane</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="str">
+        <v>is-yeri-devren-kiralik-tekel-bayi</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="str">
+        <v>is-yeri-devren-kiralik-teknik-servis</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="str">
+        <v>is-yeri-devren-kiralik-terzi</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="str">
+        <v>is-yeri-devren-kiralik-tuhafiye</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="str">
+        <v>is-yeri-devren-kiralik-tuvalet</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="str">
+        <v>is-yeri-devren-kiralik-veteriner</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="str">
+        <v>is-yeri-devren-kiralik-zuccaciye</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="str">
+        <v>is-yeri-devren-satilik-acente</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="str">
+        <v>is-yeri-devren-satilik-akaryakit-istasyonu</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="str">
+        <v>is-yeri-devren-satilik-aktar-baharatci</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="str">
+        <v>is-yeri-devren-satilik-anaokulu-kres</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="str">
+        <v>is-yeri-devren-satilik-apartman-dairesi</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="str">
+        <v>is-yeri-devren-satilik-arac-showroom-servis</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="str">
+        <v>is-yeri-devren-satilik-atolye</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="str">
+        <v>is-yeri-devren-satilik-avm-standi</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="str">
+        <v>is-yeri-devren-satilik-balikci</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="str">
+        <v>is-yeri-devren-satilik-bar</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="str">
+        <v>is-yeri-devren-satilik-bijuteri</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="str">
+        <v>is-yeri-devren-satilik-borekci</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="str">
+        <v>is-yeri-devren-satilik-bufe</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="str">
+        <v>is-yeri-devren-satilik-buro-ofis</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="str">
+        <v>is-yeri-devren-satilik-camasirhane</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="str">
+        <v>is-yeri-devren-satilik-cay-ocagi</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="str">
+        <v>is-yeri-devren-satilik-cep-telefonu-dukkani</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="str">
+        <v>is-yeri-devren-satilik-cicekci-fidanlik</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="str">
+        <v>is-yeri-devren-satilik-ciftlik</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="str">
+        <v>is-yeri-devren-satilik-depo-antrepo</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="str">
+        <v>is-yeri-devren-satilik-dugun-salonu</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="str">
+        <v>is-yeri-devren-satilik-dukkan-magaza</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="str">
+        <v>is-yeri-devren-satilik-eczane-medikal</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="str">
+        <v>is-yeri-devren-satilik-elektrikci-hirdavatci</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="str">
+        <v>is-yeri-devren-satilik-elektronik-magazasi</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="str">
+        <v>is-yeri-devren-satilik-enerji-santrali</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="str">
+        <v>is-yeri-devren-satilik-etkinlik-performans-salonu</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="str">
+        <v>is-yeri-devren-satilik-fabrika-uretim-tesisi</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="str">
+        <v>is-yeri-devren-satilik-fotograf-studyosu</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="str">
+        <v>is-yeri-devren-satilik-gece-kulubu-disko</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="str">
+        <v>is-yeri-devren-satilik-giyim-magazasi</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="str">
+        <v>is-yeri-devren-satilik-gozlukcu</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="str">
+        <v>is-yeri-devren-satilik-hali-yikama</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="str">
+        <v>is-yeri-devren-satilik-harita-g</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="str">
+        <v>is-yeri-devren-satilik-huzur-evi</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="str">
+        <v>is-yeri-devren-satilik-imalathane</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="str">
+        <v>is-yeri-devren-satilik-internet-oyun-kafe</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="str">
+        <v>is-yeri-devren-satilik-is-hani</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="str">
+        <v>is-yeri-devren-satilik-is-hani-kati-ofisi</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="str">
+        <v>is-yeri-devren-satilik-kafe</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="str">
+        <v>is-yeri-devren-satilik-kantin</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="str">
+        <v>is-yeri-devren-satilik-kasap</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="str">
+        <v>is-yeri-devren-satilik-kir-kahvalti-bahcesi</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="str">
+        <v>is-yeri-devren-satilik-kiraathane</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="str">
+        <v>is-yeri-devren-satilik-kirtasiye</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="str">
+        <v>is-yeri-devren-satilik-konut-villa</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="str">
+        <v>is-yeri-devren-satilik-kozmetik-magazasi</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="str">
+        <v>is-yeri-devren-satilik-kuafor-guzellik-merkezi</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="str">
+        <v>is-yeri-devren-satilik-kurs-egitim-merkezi</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="str">
+        <v>is-yeri-devren-satilik-kuru-temizleme</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="str">
+        <v>is-yeri-devren-satilik-kuruyemisci</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="str">
+        <v>is-yeri-devren-satilik-kuyumcu</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="str">
+        <v>is-yeri-devren-satilik-lunapark</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="str">
+        <v>is-yeri-devren-satilik-maden-ocagi</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="str">
+        <v>is-yeri-devren-satilik-manav</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="str">
+        <v>is-yeri-devren-satilik-market</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="str">
+        <v>is-yeri-devren-satilik-matbaa</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="str">
+        <v>is-yeri-devren-satilik-modaevi</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="str">
+        <v>is-yeri-devren-satilik-muayenehane</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="str">
+        <v>is-yeri-devren-satilik-nakliyat-kargo</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="str">
+        <v>is-yeri-devren-satilik-nalbur</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="str">
+        <v>is-yeri-devren-satilik-ogrenci-yurdu</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="str">
+        <v>is-yeri-devren-satilik-okul-kurs</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="str">
+        <v>is-yeri-devren-satilik-oto-servis-bakim</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="str">
+        <v>is-yeri-devren-satilik-oto-yedek-parca</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="str">
+        <v>is-yeri-devren-satilik-oto-yikama-kuafor</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="str">
+        <v>is-yeri-devren-satilik-otopark-garaj</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="str">
+        <v>is-yeri-devren-satilik-pastane-firin-tatlici</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="str">
+        <v>is-yeri-devren-satilik-pazar-yeri</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="str">
+        <v>is-yeri-devren-satilik-pet-shop</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="str">
+        <v>is-yeri-devren-satilik-plaza-kati-ofisi</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="str">
+        <v>is-yeri-devren-satilik-prova-kayit-studyosu</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="str">
+        <v>is-yeri-devren-satilik-restoran-lokanta</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="str">
+        <v>is-yeri-devren-satilik-saglik-merkezi</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="str">
+        <v>is-yeri-devren-satilik-sans-oyunlari-bayisi</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="str">
+        <v>is-yeri-devren-satilik-sarkuteri</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="str">
+        <v>is-yeri-devren-satilik-sebze-meyve-hali</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="str">
+        <v>is-yeri-devren-satilik-sinema-konferans-salonu</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="str">
+        <v>is-yeri-devren-satilik-soguk-hava-deposu</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="str">
+        <v>is-yeri-devren-satilik-spa-hamam-sauna</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="str">
+        <v>is-yeri-devren-satilik-spor-tesisi</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="str">
+        <v>is-yeri-devren-satilik-su-tup-bayi</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="str">
+        <v>is-yeri-devren-satilik-taksi-duragi</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="str">
+        <v>is-yeri-devren-satilik-tamirhane</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="str">
+        <v>is-yeri-devren-satilik-tekel-bayi</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="str">
+        <v>is-yeri-devren-satilik-teknik-servis</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="str">
+        <v>is-yeri-devren-satilik-terzi</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="str">
+        <v>is-yeri-devren-satilik-tuhafiye</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="str">
+        <v>is-yeri-devren-satilik-tuvalet</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="str">
+        <v>is-yeri-devren-satilik-veteriner</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="str">
+        <v>is-yeri-devren-satilik-zuccaciye</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="str">
+        <v>is-yeri-kiralik-akaryakit-istasyonu</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="str">
+        <v>is-yeri-kiralik-apartman-dairesi</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="str">
+        <v>is-yeri-kiralik-atolye</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="str">
+        <v>is-yeri-kiralik-avm</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="str">
+        <v>is-yeri-kiralik-bufe</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="str">
+        <v>is-yeri-kiralik-buro-ofis</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="str">
+        <v>is-yeri-kiralik-ciftlik</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="str">
+        <v>is-yeri-kiralik-depo-antrepo</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="str">
+        <v>is-yeri-kiralik-dugun-salonu</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="str">
+        <v>is-yeri-kiralik-dukkan-magaza</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="str">
+        <v>is-yeri-kiralik-enerji-santrali</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="str">
+        <v>is-yeri-kiralik-fabrika-uretim-tesisi</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="str">
+        <v>is-yeri-kiralik-garaj-park-yeri</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="str">
+        <v>is-yeri-kiralik-imalathane</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="str">
+        <v>is-yeri-kiralik-is-hani-kati-ofisi</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="str">
+        <v>is-yeri-kiralik-kafe-bar</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="str">
+        <v>is-yeri-kiralik-kantin</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="str">
+        <v>is-yeri-kiralik-kir-kahvalti-bahcesi</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="str">
+        <v>is-yeri-kiralik-kiraathane</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="str">
+        <v>is-yeri-kiralik-komple-bina</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="str">
+        <v>is-yeri-kiralik-maden-ocagi</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="str">
+        <v>is-yeri-kiralik-oto-yikama-kuafor</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="str">
+        <v>is-yeri-kiralik-otopark-garaj</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="str">
+        <v>is-yeri-kiralik-pastane-firin-tatlici</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="str">
+        <v>is-yeri-kiralik-pazar-yeri</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="str">
+        <v>is-yeri-kiralik-plaza</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="str">
+        <v>is-yeri-kiralik-plaza-kati-ofisi</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="str">
+        <v>is-yeri-kiralik-radyo-istasyonu-tv-kanali</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="str">
+        <v>is-yeri-kiralik-restoran-lokanta</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="str">
+        <v>is-yeri-kiralik-rezidans-kati-ofisi</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="str">
+        <v>is-yeri-kiralik-saglik-merkezi</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="str">
+        <v>is-yeri-kiralik-sinema-konferans-salonu</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="str">
+        <v>is-yeri-kiralik-spa-hamam-sauna</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="str">
+        <v>is-yeri-kiralik-yurt</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="str">
+        <v>is-yeri-satilik-akaryakit-istasyonu</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="str">
+        <v>is-yeri-satilik-apartman-dairesi</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="str">
+        <v>is-yeri-satilik-atolye</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="str">
+        <v>is-yeri-satilik-avm</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="str">
+        <v>is-yeri-satilik-bufe</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="str">
+        <v>is-yeri-satilik-buro-ofis</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="str">
+        <v>is-yeri-satilik-ciftlik</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="str">
+        <v>is-yeri-satilik-depo-antrepo</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="str">
+        <v>is-yeri-satilik-dugun-salonu</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="str">
+        <v>is-yeri-satilik-dukkan-magaza</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="str">
+        <v>is-yeri-satilik-enerji-santrali</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="str">
+        <v>is-yeri-satilik-fabrika-uretim-tesisi</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="str">
+        <v>is-yeri-satilik-garaj-park-yeri</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="str">
+        <v>is-yeri-satilik-imalathane</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="str">
+        <v>is-yeri-satilik-is-hani-kati-ofisi</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="str">
+        <v>is-yeri-satilik-kafe-bar</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="str">
+        <v>is-yeri-satilik-kantin</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="str">
+        <v>is-yeri-satilik-kir-kahvalti-bahcesi</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="str">
+        <v>is-yeri-satilik-kiraathane</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="str">
+        <v>is-yeri-satilik-komple-bina</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="str">
+        <v>is-yeri-satilik-maden-ocagi</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="str">
+        <v>is-yeri-satilik-oto-yikama-kuafor</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="str">
+        <v>is-yeri-satilik-otopark-garaj</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="str">
+        <v>is-yeri-satilik-pastane-firin-tatlici</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="str">
+        <v>is-yeri-satilik-pazar-yeri</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="str">
+        <v>is-yeri-satilik-plaza</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="str">
+        <v>is-yeri-satilik-plaza-kati-ofisi</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="str">
+        <v>is-yeri-satilik-radyo-istasyonu-tv-kanali</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="str">
+        <v>is-yeri-satilik-restoran-lokanta</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="str">
+        <v>is-yeri-satilik-rezidans-kati-ofisi</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="str">
+        <v>is-yeri-satilik-saglik-merkezi</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="str">
+        <v>is-yeri-satilik-sinema-konferans-salonu</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="str">
+        <v>is-yeri-satilik-spa-hamam-sauna</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="str">
+        <v>is-yeri-satilik-yurt</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="str">
+        <v>isletme-ve-stratejik-yonetim/danismanlik</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="str">
+        <v>isletme-ve-stratejik-yonetim/egitim-kurumu-yonetimi</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="str">
+        <v>isletme-ve-stratejik-yonetim/franchise</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="str">
+        <v>isletme-ve-stratejik-yonetim/hastane-klinik-yoneticiligi</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="str">
+        <v>isletme-ve-stratejik-yonetim/is-analizi</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="str">
+        <v>isletme-ve-stratejik-yonetim/sube-yonetimi</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="str">
+        <v>it-ve-yazilim-gelistirme/bilgisayar-teknisyeni</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="str">
+        <v>it-ve-yazilim-gelistirme/kullanilabilirlik-ve-etkilesim-tasarimi</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="str">
+        <v>it-ve-yazilim-gelistirme/proje-yoneticisi</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="str">
+        <v>it-ve-yazilim-gelistirme/sistem-yoneticisi</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="str">
+        <v>it-ve-yazilim-gelistirme/veritabani-yoneticisi</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="str">
+        <v>it-ve-yazilim-gelistirme/yazilim-gelistirme-uzmani</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="str">
+        <v>kiralik-asfalt-makinesi</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="str">
+        <v>kiralik-beko-loder-kazici-yukleyici</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="str">
+        <v>kiralik-belden-kirmali-damper</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="str">
+        <v>kiralik-beton-dagitici</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="str">
+        <v>kiralik-beton-pompasi</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="str">
+        <v>kiralik-cop-kompaktoru</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="str">
+        <v>kiralik-demiryolu-makinesi</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="str">
+        <v>kiralik-dizel-cekic</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="str">
+        <v>kiralik-dozer</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="str">
+        <v>kiralik-ekskavator-kepce</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="str">
+        <v>kiralik-finiser</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="str">
+        <v>kiralik-fore-kazik-makinesi</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="str">
+        <v>kiralik-greyder</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="str">
+        <v>kiralik-kanal-hendek-kazici</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="str">
+        <v>kiralik-kar-araci</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="str">
+        <v>kiralik-kar-kureme-araci</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="str">
+        <v>kiralik-kar-puskurtme-makinesi</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="str">
+        <v>kiralik-kaya-delici-ankraj</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="str">
+        <v>kiralik-kaya-kamyonu</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="str">
+        <v>kiralik-kirma-eleme-tesisi</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="str">
+        <v>kiralik-kule-vinc</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="str">
+        <v>kiralik-loder-yukleyici</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="str">
+        <v>kiralik-mobil-asansor</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="str">
+        <v>kiralik-mobil-konkasor</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="str">
+        <v>kiralik-mobil-vinc</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="str">
+        <v>kiralik-silindir</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="str">
+        <v>kiralik-sondaj-makinesi</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="str">
+        <v>kiralik-teleskopik-yukleyici</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="str">
+        <v>kiralik-transmikser</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="str">
+        <v>kiralik-yer-alti-makinesi</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="str">
+        <v>kisisel-bakim-kozmetik-agiz-dis</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="str">
+        <v>kisisel-bakim-kozmetik-el-ayak-tirnak</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="str">
+        <v>kisisel-bakim-kozmetik-epilasyon</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="str">
+        <v>kisisel-bakim-kozmetik-hijyenik-urunler</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="str">
+        <v>kisisel-bakim-kozmetik-makyaj</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="str">
+        <v>kisisel-bakim-kozmetik-parfum</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="str">
+        <v>kisisel-bakim-kozmetik-profesyonel-ekipmanlar</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="str">
+        <v>kisisel-bakim-kozmetik-sac-bakimi</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="str">
+        <v>kisisel-bakim-kozmetik-tiras</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="str">
+        <v>kisisel-bakim-kozmetik-vucut-bakimi</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="str">
+        <v>kisisel-bakim-kozmetik-yuz-bakimi</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="str">
+        <v>kisisel-bakim-kozmetik-zayiflama-urunleri</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="str">
+        <v>koleksiyon</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="str">
+        <v>konut-devren-satilik-konut-apartpansiyon</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="str">
+        <v>konut-devren-satilik-konut-daire</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="str">
+        <v>konut-devren-satilik-konut-villa</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="str">
+        <v>konut-kiralik-ciflik-evi</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="str">
+        <v>konut-kiralik-koskkonak</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="str">
+        <v>konut-kiralik-mustakil-ev</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="str">
+        <v>konut-kiralik-rezidans</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="str">
+        <v>konut-kiralik-yali</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="str">
+        <v>konut-kiralik-yali-dairesi</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="str">
+        <v>konut-projeleri-daire</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="str">
+        <v>konut-projeleri-residence</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="str">
+        <v>konut-projeleri-villa</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="str">
+        <v>konut-satilik-ciflik-evi</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="str">
+        <v>konut-satilik-koskkonak</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="str">
+        <v>konut-satilik-mustakil-ev</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="str">
+        <v>konut-satilik-rezidans</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="str">
+        <v>konut-satilik-yali</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="str">
+        <v>konut-satilik-yali-dairesi</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="str">
+        <v>konut-turistik-gunluk-kiralik-apartpansiyon</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="str">
+        <v>konut-turistik-gunluk-kiralik-devre-mulk</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="str">
+        <v>konut-turistik-gunluk-kiralik-mustakil-ev</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="str">
+        <v>konut-turistik-gunluk-kiralik-rezidans</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="str">
+        <v>koruma-ve-guvenlik/cankurtaran</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="str">
+        <v>koruma-ve-guvenlik/guvenlik-gorevlisi</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="str">
+        <v>koruma-ve-guvenlik/guvenlik-sefi</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="str">
+        <v>koruma-ve-guvenlik/havaalani-guvenlik-gorevlisi</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="str">
+        <v>koruma-ve-guvenlik/yakin-koruma</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="str">
+        <v>lojistik-ve-tasima/dagitim-personeli</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="str">
+        <v>lojistik-ve-tasima/depo-sevkiyat-sorumlusu</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="str">
+        <v>lojistik-ve-tasima/forklift-operatoru</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="str">
+        <v>lojistik-ve-tasima/gemi-personeli-ve-denizci</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="str">
+        <v>lojistik-ve-tasima/ithalat-ve-ihracat-uzmani</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="str">
+        <v>lojistik-ve-tasima/kargo</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="str">
+        <v>lojistik-ve-tasima/pilot</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="str">
+        <v>lojistik-ve-tasima/satin-alma-sorumlusu</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="str">
+        <v>lojistik-ve-tasima/sofor</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="str">
+        <v>lojistik-ve-tasima/tasima-elemani</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="str">
+        <v>magazacilik-ve-perakendecilik/depo-sorumlusu</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="str">
+        <v>magazacilik-ve-perakendecilik/kasap</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="str">
+        <v>magazacilik-ve-perakendecilik/kategori-uzmani</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="str">
+        <v>magazacilik-ve-perakendecilik/magaza-ve-perakende-yoneticisi</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="str">
+        <v>magazacilik-ve-perakendecilik/sarkuteri-sorumlusu</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="str">
+        <v>magazacilik-ve-perakendecilik/tezgahtar</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="str">
+        <v>motosiklet</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="str">
+        <v>muhasebe-finans-ve-bankacilik/finansal-kontrol</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="str">
+        <v>muhasebe-finans-ve-bankacilik/genel-muhasebe</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="str">
+        <v>muhasebe-finans-ve-bankacilik/gise-gorevlisi</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="str">
+        <v>muhasebe-finans-ve-bankacilik/kredi-analizi</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="str">
+        <v>muhasebe-finans-ve-bankacilik/kredi-ve-mortgage-uzmani</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="str">
+        <v>muhasebe-finans-ve-bankacilik/kurumsal-finans</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="str">
+        <v>muhasebe-finans-ve-bankacilik/kurumsal-muhasebe</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="str">
+        <v>muhasebe-finans-ve-bankacilik/on-muhasebe</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="str">
+        <v>muhasebe-finans-ve-bankacilik/risk-yonetimi</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="str">
+        <v>muhasebe-finans-ve-bankacilik/sube-yonetimi</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="str">
+        <v>muhasebe-finans-ve-bankacilik/tahsilat</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="str">
+        <v>muhasebe-finans-ve-bankacilik/vergi-muhasebesi</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="str">
+        <v>muhasebe-finans-ve-bankacilik/yatirim-danismanligi</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="str">
+        <v>muhendislik/bilgisayar-muhendisi</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="str">
+        <v>muhendislik/cevre-muhendisi</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="str">
+        <v>muhendislik/elektrik-elektronik-muhendisi</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="str">
+        <v>muhendislik/endustri-muhendisi</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="str">
+        <v>muhendislik/gida-muhendisi</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="str">
+        <v>muhendislik/harita-muhendisi</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="str">
+        <v>muhendislik/insaat-muhendisi</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="str">
+        <v>muhendislik/jeoloji-muhendisi</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="str">
+        <v>muhendislik/kimya-muhendisi</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="str">
+        <v>muhendislik/maden-muhendisi</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="str">
+        <v>muhendislik/makine-muhendisi</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="str">
+        <v>muhendislik/mekatronik-muhendisi</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="str">
+        <v>muhendislik/metalurji-ve-malzeme-muhendisi</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="str">
+        <v>muhendislik/orman-muhendisi</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="str">
+        <v>muhendislik/otomotiv-muhendisi</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="str">
+        <v>muhendislik/su-urunleri-muhendisi</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="str">
+        <v>muhendislik/yazilim-muhendisi</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="str">
+        <v>muhendislik/ziraat-muhendisi</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="str">
+        <v>musteri-hizmetleri/cagri-merkezi-elemani</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="str">
+        <v>musteri-hizmetleri/host-hostes</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="str">
+        <v>musteri-hizmetleri/musteri-temsilcisi</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="str">
+        <v>musteri-hizmetleri/rezervasyon-ve-biletleme</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="str">
+        <v>musteri-hizmetleri/teknik-musteri-destek</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="str">
+        <v>muzik</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="str">
+        <v>ofis-yonetimi-ve-idari-isler/apartman-ve-site-gorevlisi</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="str">
+        <v>ofis-yonetimi-ve-idari-isler/bina-yonetimi</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="str">
+        <v>ofis-yonetimi-ve-idari-isler/idari-isler-sorumlusu</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="str">
+        <v>ofis-yonetimi-ve-idari-isler/ikram-ve-kat-gorevlisi</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="str">
+        <v>ofis-yonetimi-ve-idari-isler/is-birimi-yoneticiligi</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="str">
+        <v>ofis-yonetimi-ve-idari-isler/ofis-yonetimi</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="str">
+        <v>ofis-yonetimi-ve-idari-isler/resepsiyon</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="str">
+        <v>ofis-yonetimi-ve-idari-isler/sekreter</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="str">
+        <v>ofis-yonetimi-ve-idari-isler/temizlik-gorevlisi</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="str">
+        <v>ofis-yonetimi-ve-idari-isler/yonetici-asistani</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="str">
+        <v>oyunculara-ozel-oyun-bilgisayari</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="str">
+        <v>oyunculara-ozel-oyun-konsolu</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="str">
+        <v>oyunculara-ozel-oyuncu-ekipmanlari</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="str">
+        <v>oyunculara-ozel-oyunlar</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="str">
+        <v>ozel-ders-cocuk-gelisimi</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="str">
+        <v>ozel-ders-dans</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="str">
+        <v>ozel-ders-diksiyon</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="str">
+        <v>ozel-ders-fotografcilik</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="str">
+        <v>ozel-ders-mesleki-dersler</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="str">
+        <v>ozel-ders-tiyatro-oyunculuk</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="str">
+        <v>part-time-ve-ek-is-firsatlari/anketor</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="str">
+        <v>part-time-ve-ek-is-firsatlari/diger-donemsel-isler</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="str">
+        <v>part-time-ve-ek-is-firsatlari/stant-elemani</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="str">
+        <v>pazarlama-ve-urun-yonetimi/crm</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="str">
+        <v>pazarlama-ve-urun-yonetimi/etkinlik-yonetimi</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="str">
+        <v>pazarlama-ve-urun-yonetimi/kurumsal-iletisim</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="str">
+        <v>pazarlama-ve-urun-yonetimi/marka-yonetimi</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="str">
+        <v>pazarlama-ve-urun-yonetimi/medya-planlama</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="str">
+        <v>pazarlama-ve-urun-yonetimi/pazar-arastirma</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="str">
+        <v>pazarlama-ve-urun-yonetimi/pazarlama-iletisimi</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="str">
+        <v>pazarlama-ve-urun-yonetimi/urun-yonetimi</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="str">
+        <v>radyo-sinema-ve-televizyon/kurgu-operatoru</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="str">
+        <v>radyo-sinema-ve-televizyon/seslendirme-sanatcisi</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="str">
+        <v>radyo-sinema-ve-televizyon/tv-sunucusu</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="str">
+        <v>restoran-ve-konaklama/asci</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="str">
+        <v>restoran-ve-konaklama/asci-yardimcisi</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="str">
+        <v>restoran-ve-konaklama/barmen-ve-barista</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="str">
+        <v>restoran-ve-konaklama/bellboy</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="str">
+        <v>restoran-ve-konaklama/bulasikci</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="str">
+        <v>restoran-ve-konaklama/host-hostes</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="str">
+        <v>restoran-ve-konaklama/housekeeping</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="str">
+        <v>restoran-ve-konaklama/kasiyer</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="str">
+        <v>restoran-ve-konaklama/kebap-ve-doner-ustasi</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="str">
+        <v>restoran-ve-konaklama/meze-ustasi</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="str">
+        <v>restoran-ve-konaklama/moto-kurye</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="str">
+        <v>restoran-ve-konaklama/musteri-iliskileri</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="str">
+        <v>restoran-ve-konaklama/mutfak-yoneticisi</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="str">
+        <v>restoran-ve-konaklama/otel-yoneticisi</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="str">
+        <v>restoran-ve-konaklama/pasta-ve-tatli-ustasi</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="str">
+        <v>restoran-ve-konaklama/pide-ve-firin-ustasi</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="str">
+        <v>restoran-ve-konaklama/pizza-ustasi</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="str">
+        <v>restoran-ve-konaklama/resepsiyon-ve-frontdesk</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="str">
+        <v>restoran-ve-konaklama/restoran-yoneticisi</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="str">
+        <v>restoran-ve-konaklama/salata-ustasi</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="str">
+        <v>restoran-ve-konaklama/servis-elemani</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="str">
+        <v>restoran-ve-konaklama/tezgahtar</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="str">
+        <v>restoran-ve-konaklama/vale</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="str">
+        <v>saat-cep-saati</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="str">
+        <v>saat-duvar-saati</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="str">
+        <v>saat-kol-saati</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="str">
+        <v>saat-kum-saati</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="str">
+        <v>saat-masa-saati</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="str">
+        <v>saat-parca-aksesuar</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="str">
+        <v>saglik/acil-tip-teknisyeni</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="str">
+        <v>saglik/anestezi-teknikeri</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="str">
+        <v>saglik/asistan</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="str">
+        <v>saglik/dil-ve-konusma-terapisti</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="str">
+        <v>saglik/dis-hekimi</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="str">
+        <v>saglik/diyetisyen</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="str">
+        <v>saglik/eeg-ve-emg-teknikeri</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="str">
+        <v>saglik/fizik-tedavi-teknikeri</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="str">
+        <v>saglik/fizyoterapist</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="str">
+        <v>saglik/goz-doktoru</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="str">
+        <v>saglik/hemsire</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="str">
+        <v>saglik/is-guvenligi-uzmani</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="str">
+        <v>saglik/isyeri-hekimi</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="str">
+        <v>saglik/laborant</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="str">
+        <v>saglik/optisyen</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="str">
+        <v>saglik/paramedik</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="str">
+        <v>saglik/pratisyen-hekim</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="str">
+        <v>saglik/psikolog</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="str">
+        <v>saglik/spor-hastaliklari-uzmani</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="str">
+        <v>saglik/tibbi-sekreter</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="str">
+        <v>saglik/uzman-doktor</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="str">
+        <v>saglik/veteriner-hekim</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="str">
+        <v>saglik/veteriner-teknikeri</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="str">
+        <v>sanayi-cadir-tente-kepenk</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="str">
+        <v>sanayi-endustri-makineleri</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="str">
+        <v>sanayi-endustriyel-hirdavat</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="str">
+        <v>sanayi-endustriyel-mobilya</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="str">
+        <v>sanayi-endustriyel-mutfak</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="str">
+        <v>sanayi-endustriyel-temizlik</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="str">
+        <v>sanayi-kompresor</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="str">
+        <v>sanayi-konteyner-kabin</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="str">
+        <v>sanayi-koruma-ve-siginak-sistemleri</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="str">
+        <v>sanayi-raf-urun-teshir</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="str">
+        <v>sanayi-tasima-istifleme</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="str">
+        <v>satilik-asfalt-makinesi</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="str">
+        <v>satilik-beko-loder-kazici-yukleyici</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="str">
+        <v>satilik-belden-kirmali-damper</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="str">
+        <v>satilik-beton-dagitici</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="str">
+        <v>satilik-beton-pompasi</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="str">
+        <v>satilik-cop-kompaktoru</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="str">
+        <v>satilik-demiryolu-makinesi</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="str">
+        <v>satilik-dizel-cekic</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="str">
+        <v>satilik-dozer</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="str">
+        <v>satilik-ekskavator-kepce</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="str">
+        <v>satilik-finiser</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="str">
+        <v>satilik-fore-kazik-makinesi</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="str">
+        <v>satilik-greyder</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="str">
+        <v>satilik-kanal-hendek-kazici</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="str">
+        <v>satilik-kar-araci</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="str">
+        <v>satilik-kar-kureme-araci</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="str">
+        <v>satilik-kar-puskurtme-makinesi</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="str">
+        <v>satilik-kaya-delici-ankraj</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="str">
+        <v>satilik-kaya-kamyonu</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="str">
+        <v>satilik-kirma-eleme-tesisi</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="str">
+        <v>satilik-kule-vinc</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="str">
+        <v>satilik-loder-yukleyici</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="str">
+        <v>satilik-mobil-asansor</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="str">
+        <v>satilik-mobil-konkasor</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="str">
+        <v>satilik-mobil-vinc</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="str">
+        <v>satilik-silindir</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="str">
+        <v>satilik-sondaj-makinesi</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="str">
+        <v>satilik-teleskopik-yukleyici</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="str">
+        <v>satilik-transmikser</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="str">
+        <v>satilik-yer-alti-makinesi</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="str">
+        <v>satis/akaryakit-istasyonu-elemani</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="str">
+        <v>satis/gayrimenkul-danismanligi</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="str">
+        <v>satis/reklam-satis-temsilcisi</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="str">
+        <v>satis/saglik-ve-guzellik-urunleri-satis-temsilcisi</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="str">
+        <v>satis/saha-satis-temsilcisi</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="str">
+        <v>satis/satis-destek-uzmani</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="str">
+        <v>satis/satis-pazarlama-elemani</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="str">
+        <v>satis/sigorta-ve-emeklilik-satis-temsilcisi</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="str">
+        <v>satis/su-ve-tup-dagitim-elemani</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="str">
+        <v>satis/sube-ve-bayi-satis-temsilcisi</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="str">
+        <v>satis/tele-satis-temsilcisi</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="str">
+        <v>spor</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="str">
+        <v>taki-mucevher</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="str">
+        <v>tamir-ve-bakim/arac-tamir-bakim-ve-temizlik</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="str">
+        <v>tamir-ve-bakim/bina-yonetimi</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="str">
+        <v>tamir-ve-bakim/cilingir</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="str">
+        <v>tamir-ve-bakim/elektrik-isleri</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="str">
+        <v>tamir-ve-bakim/elektronik-tamir-bakim</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="str">
+        <v>tamir-ve-bakim/ilaclama-isleri</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="str">
+        <v>tamir-ve-bakim/insaat-isleri</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="str">
+        <v>tamir-ve-bakim/tesisat-isleri</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="str">
+        <v>tarim-makineleri-atasman-yedek-parca</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="str">
+        <v>tarim-makineleri-bitki-bakim</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="str">
+        <v>tarim-makineleri-ekim-dikim</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="str">
+        <v>tarim-makineleri-gubreleme</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="str">
+        <v>tarim-makineleri-hasat-harman</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="str">
+        <v>tarim-makineleri-hayvancilik</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="str">
+        <v>tarim-makineleri-sulama</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="str">
+        <v>tarim-makineleri-tasima</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="str">
+        <v>tarim-makineleri-toprak-isleme</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="str">
+        <v>tarim-ve-hayvancilik/aricilik</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="str">
+        <v>tarim-ve-hayvancilik/bahcivan</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="str">
+        <v>tarim-ve-hayvancilik/balikcilik</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="str">
+        <v>tarim-ve-hayvancilik/buyukbas-ve-kucukbas-hayvanciligi</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="str">
+        <v>tarim-ve-hayvancilik/hayvan-bakiciligi</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="str">
+        <v>tarim-ve-hayvancilik/kumes-hayvanciligi</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="str">
+        <v>tarim-ve-hayvancilik/tarim-iscisi</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="str">
+        <v>tasarim-ve-yaraticilik/animasyon-ve-multimedia</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="str">
+        <v>tasarim-ve-yaraticilik/ceviri-ve-tercumanlik</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="str">
+        <v>tasarim-ve-yaraticilik/editor</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="str">
+        <v>tasarim-ve-yaraticilik/endustriyel-tasarim</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="str">
+        <v>tasarim-ve-yaraticilik/fotograf-ve-video</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="str">
+        <v>tasarim-ve-yaraticilik/grafik-tasarimcisi</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="str">
+        <v>tasarim-ve-yaraticilik/metin-yazari</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="str">
+        <v>tasarim-ve-yaraticilik/mimar-ve-ic-mimar</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="str">
+        <v>tasarim-ve-yaraticilik/moda-ve-aksesuar-tasarimcisi</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="str">
+        <v>tasarim-ve-yaraticilik/montaj-ve-kurgu</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="str">
+        <v>tasarim-ve-yaraticilik/muzik-ve-ses</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="str">
+        <v>tasarim-ve-yaraticilik/peyzaj-mimari</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="str">
+        <v>tasarim-ve-yaraticilik/ressam-ve-heykeltiras</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="str">
+        <v>tasarim-ve-yaraticilik/senarist</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="str">
+        <v>tekstil-ve-konfeksiyon/depo-elemani</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="str">
+        <v>tekstil-ve-konfeksiyon/diger-tekstil-isleri</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="str">
+        <v>tekstil-ve-konfeksiyon/duz-makinaci</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="str">
+        <v>tekstil-ve-konfeksiyon/fason-takip-sorumlusu-inspector</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="str">
+        <v>tekstil-ve-konfeksiyon/kalite-kontrol-sorumlusu</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="str">
+        <v>tekstil-ve-konfeksiyon/makastar</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="str">
+        <v>tekstil-ve-konfeksiyon/merchandiser</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="str">
+        <v>tekstil-ve-konfeksiyon/model-makineci</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="str">
+        <v>tekstil-ve-konfeksiyon/modelist</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="str">
+        <v>tekstil-ve-konfeksiyon/ortaci</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="str">
+        <v>tekstil-ve-konfeksiyon/overlokcu</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="str">
+        <v>tekstil-ve-konfeksiyon/planlama-ve-operasyon-uzmani</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="str">
+        <v>tekstil-ve-konfeksiyon/prova-mankeni</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="str">
+        <v>tekstil-ve-konfeksiyon/resmeci</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="str">
+        <v>tekstil-ve-konfeksiyon/son-utucu</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="str">
+        <v>tekstil-ve-konfeksiyon/stilist</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="str">
+        <v>tekstil-ve-konfeksiyon/tekstil-ve-konfeksiyon-yoneticisi</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="str">
+        <v>tekstil-ve-konfeksiyon/terzi</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="str">
+        <v>temizlikci-ev-islerine-yardimci</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="str">
+        <v>ticari-araclar-cekici</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="str">
+        <v>ticari-araclar-dorse</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="str">
+        <v>ticari-araclar-kamyon-kamyonet</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="str">
+        <v>ticari-araclar-karoser-ust-yapi</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="str">
+        <v>ticari-araclar-oto-kurtarici-tasiyici</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="str">
+        <v>ticari-araclar-romork</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="str">
+        <v>ticari-araclar-ticari-hat-ticari-plaka</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="str">
+        <v>turistik-tesis-kiralik-apart-otel</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="str">
+        <v>turistik-tesis-kiralik-butik-otel</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="str">
+        <v>turistik-tesis-kiralik-kamp-yeri-mocamp</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="str">
+        <v>turistik-tesis-kiralik-motel</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="str">
+        <v>turistik-tesis-kiralik-otel</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="str">
+        <v>turistik-tesis-kiralik-pansiyon</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="str">
+        <v>turistik-tesis-kiralik-tatil-koyu</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="str">
+        <v>turistik-tesis-satilik-apart-otel</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="str">
+        <v>turistik-tesis-satilik-butik-otel</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="str">
+        <v>turistik-tesis-satilik-kamp-yeri-mocamp</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="str">
+        <v>turistik-tesis-satilik-motel</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="str">
+        <v>turistik-tesis-satilik-otel</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="str">
+        <v>turistik-tesis-satilik-pansiyon</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="str">
+        <v>turistik-tesis-satilik-tatil-koyu</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="str">
+        <v>uretim-ve-imalat/3d-yazici-operatoru</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="str">
+        <v>uretim-ve-imalat/bakim-teknisyeni</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="str">
+        <v>uretim-ve-imalat/cad-cam-teknisyeni</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="str">
+        <v>uretim-ve-imalat/cnc-operatoru</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="str">
+        <v>uretim-ve-imalat/dokum-ustasi</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="str">
+        <v>uretim-ve-imalat/gida-uretimi</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="str">
+        <v>uretim-ve-imalat/kalipci</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="str">
+        <v>uretim-ve-imalat/kalite-kontrol-sorumlusu</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="str">
+        <v>uretim-ve-imalat/kaynakci</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="str">
+        <v>uretim-ve-imalat/kompozit-malzeme-uretim-elemani</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="str">
+        <v>uretim-ve-imalat/makine-montaj-elemani</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="str">
+        <v>uretim-ve-imalat/makine-teknikeri</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="str">
+        <v>uretim-ve-imalat/marangoz</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="str">
+        <v>uretim-ve-imalat/mobilya-ustasi</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="str">
+        <v>uretim-ve-imalat/montaj-ustasi</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="str">
+        <v>uretim-ve-imalat/otomasyon-teknisyeni</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="str">
+        <v>uretim-ve-imalat/plastik-ve-metal-enjeksiyon-ustasi</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="str">
+        <v>uretim-ve-imalat/pres-operatoru</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="str">
+        <v>uretim-ve-imalat/pvc-aluminyum-dograma-ustasi</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="str">
+        <v>uretim-ve-imalat/sac-metal-isleme-ustasi</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="str">
+        <v>uretim-ve-imalat/teknik-ressam</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="str">
+        <v>uretim-ve-imalat/tekstil-uretim-elemani</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="str">
+        <v>uretim-ve-imalat/torna-ve-freze-ustasi</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="str">
+        <v>uretim-ve-imalat/uretim-elemani</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="str">
+        <v>uretim-ve-imalat/uretim-muduru</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="str">
+        <v>utv</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="str">
+        <v>yasli-hasta-bakicisi</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-aksesuar-tuning-bakim-urunleri</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-aksesuar-tuning-gorunum</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-aksesuar-tuning-koruma</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-elektronik-ekipman</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-jant-lastik-aksesuar-ekipman</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-jant-lastik-jant</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-jant-lastik-jant-lastik-takimi</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-jant-lastik-lastik</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-kask-kiyafet-ekipman-ayakkabi-bot</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-kask-kiyafet-ekipman-eldiven</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-kask-kiyafet-ekipman-kask</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-kask-kiyafet-ekipman-mont</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-kask-kiyafet-ekipman-pantolon</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-kask-kiyafet-ekipman-sweatshirt</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-kask-kiyafet-ekipman-tisort</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-kask-kiyafet-ekipman-tulum</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-kask-kiyafet-ekipman-yagmurluk</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-yedek-parca-debriyaj</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-yedek-parca-egzoz</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-yedek-parca-elektrik</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-yedek-parca-fren</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-yedek-parca-grenaj</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-yedek-parca-havalandirma</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-yedek-parca-motor</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-yedek-parca-sanziman</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-yedek-parca-suspansiyon</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-yedek-parca-yaglama</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-yedek-parca-yakit-sistemi</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-motosiklet-ekipmanlari-yedek-parca-yonlendirme</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-aksesuar-tuning-minivan-panelvan-bakim-onarim-urunleri</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-aksesuar-tuning-minivan-panelvan-dis-aksesuar</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-aksesuar-tuning-minivan-panelvan-i-c-aksesuar</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-aksesuar-tuning-otomobil-arazi-araci-bakim-onarim-urunleri</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-aksesuar-tuning-otomobil-arazi-araci-dis-aksesuar</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-aksesuar-tuning-otomobil-arazi-araci-elektronik</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-aksesuar-tuning-otomobil-arazi-araci-i-c-aksesuar</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-aksesuar-tuning-otomobil-arazi-araci-performans</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-aksesuar-tuning-ticari-araclar-kamyon-cekici-bakim-onarim-urunleri</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-aksesuar-tuning-ticari-araclar-kamyon-cekici-dis-aksesuar</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-aksesuar-tuning-ticari-araclar-kamyon-cekici-i-c-aksesuar</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-aksesuar-tuning-ticari-araclar-kamyonet-pickup-bakim-onarim-urunleri</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-aksesuar-tuning-ticari-araclar-kamyonet-pickup-dis-aksesuar</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-aksesuar-tuning-ticari-araclar-kamyonet-pickup-i-c-aksesuar</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-aksesuar-tuning-ticari-araclar-minibus-otobus-bakim-onarim-urunleri</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-aksesuar-tuning-ticari-araclar-minibus-otobus-dis-aksesuar</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-aksesuar-tuning-ticari-araclar-minibus-otobus-i-c-aksesuar</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-jant-lastik-ticari-araclar-aksesuar-ekipman</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-jant-lastik-ticari-araclar-jant</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-jant-lastik-ticari-araclar-jant-kapaklari</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-jant-lastik-ticari-araclar-jant-lastik-takimlari</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-jant-lastik-ticari-araclar-lastik</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-aksesuar-cd-changer</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-aksesuar-crossover</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-aksesuar-ekolayzer</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-aksesuar-fm-transmitter</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-aksesuar-hoparlor-kapagi</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-aksesuar-hoparlor-pandizotu</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-aksesuar-i-nvertor</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-aksesuar-kabin</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-aksesuar-kablo</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-aksesuar-kapasitor</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-aksesuar-kaset-adaptoru</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-aksesuar-ses-i-slemcisi</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-aksesuar-sigortalik</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-aksesuar-teyp-cercevesi</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-aksesuar-uzaktan-kumanda</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-aksesuar-yalitim-malzemeleri</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-amfi</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-arac-i-ci-kamera</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-geri-gorus-kamerasi</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-koaksiyel-coax</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-komponent</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-midrange</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-monitor</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-multimedya-oynatici</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-muzik-calar</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-navigasyon-cihazi</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-subwoofer</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-tweeter</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-ses-goruntu-sistemleri-woofer</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-minivan-panelvan-atesleme-yakit</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-minivan-panelvan-egzoz</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-minivan-panelvan-elektrik</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-minivan-panelvan-fren-debriyaj</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-minivan-panelvan-isitma-havalandirma-klima</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-minivan-panelvan-kaporta-karoser</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-minivan-panelvan-mekanik</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-minivan-panelvan-sanziman-vites</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-otomobil-arazi-araci-atesleme-yakit</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-otomobil-arazi-araci-egzoz</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-otomobil-arazi-araci-elektrik</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-otomobil-arazi-araci-filtre</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-otomobil-arazi-araci-fren-debriyaj</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-otomobil-arazi-araci-isitma-havalandirma-klima</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-otomobil-arazi-araci-kaporta-karoser</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-otomobil-arazi-araci-mekanik</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-otomobil-arazi-araci-motor</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-otomobil-arazi-araci-sanziman-vites</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-go-kart</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyon-cekici-atesleme-yakit</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyon-cekici-egzoz</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyon-cekici-elektrik</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyon-cekici-filtre</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyon-cekici-fren-debriyaj</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyon-cekici-isitma-havalandirma-klima</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyon-cekici-kaporta-karoser</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyon-cekici-mekanik</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyon-cekici-motor</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyon-cekici-sanziman-vites</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyonet-pickup-atesleme-yakit</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyonet-pickup-egzoz</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyonet-pickup-elektrik</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyonet-pickup-filtre</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyonet-pickup-fren-debriyaj</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyonet-pickup-isitma-havalandirma-klima</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyonet-pickup-kaporta-karoser</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyonet-pickup-mekanik</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyonet-pickup-motor</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-kamyonet-pickup-sanziman-vites</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-minibus-otobus-atesleme-yakit</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-minibus-otobus-egzoz</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-minibus-otobus-elektrik</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-minibus-otobus-filtre</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-minibus-otobus-fren-debriyaj</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-minibus-otobus-isitma-havalandirma-klima</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-minibus-otobus-kaporta-karoser</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-minibus-otobus-mekanik</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-minibus-otobus-motor</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-minibus-otobus-sanziman-vites</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-oto-kurtarici-tasiyici-atesleme-yakit</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-oto-kurtarici-tasiyici-egzoz</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-oto-kurtarici-tasiyici-elektrik</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-oto-kurtarici-tasiyici-filtre</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-oto-kurtarici-tasiyici-fren-debriyaj</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-oto-kurtarici-tasiyici-isitma-havalandirma-klima</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-oto-kurtarici-tasiyici-kaporta-karoser</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-oto-kurtarici-tasiyici-mekanik</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-oto-kurtarici-tasiyici-motor</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-oto-kurtarici-tasiyici-sanziman-vites</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="str">
+        <v>yedek-parca-aksesuar-donanim-tuning-otomotiv-ekipmanlari-yedek-parca-ticari-araclar-treyler</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="str">
+        <v>yedek-parca-atasman-asfalt-makinesi-parcalari</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="str">
+        <v>yedek-parca-atasman-beko-loder-parcalari</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="str">
+        <v>yedek-parca-atasman-beton-pompasi-parcalari</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="str">
+        <v>yedek-parca-atasman-demiryolu-makinesi-parcalari</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="str">
+        <v>yedek-parca-atasman-dozer-parcalari</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="str">
+        <v>yedek-parca-atasman-ekskavator-parcalari</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="str">
+        <v>yedek-parca-atasman-finiser-parcalari</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="str">
+        <v>yedek-parca-atasman-fore-kazik-makinesi-parcalari</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="str">
+        <v>yedek-parca-atasman-forklift-parcalari</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="str">
+        <v>yedek-parca-atasman-greyder-parcalari</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="str">
+        <v>yedek-parca-atasman-kaya-delici-parcalari</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="str">
+        <v>yedek-parca-atasman-kaya-kamyonu-yedek-parca</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="str">
+        <v>yedek-parca-atasman-kirici-parcalari</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="str">
+        <v>yedek-parca-atasman-kule-vinc-parcalari</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="str">
+        <v>yedek-parca-atasman-mobil-asansor-parcalari</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="str">
+        <v>yedek-parca-atasman-mobil-konkasor-parcalari</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="str">
+        <v>yedek-parca-atasman-mobil-vinc-parcalari</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="str">
+        <v>yedek-parca-atasman-silindir-parcalari</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="str">
+        <v>yedek-parca-atasman-sondaj-makinesi-parcalari</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="str">
+        <v>yedek-parca-atasman-teleskopik-yukleyici-parcalari</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="str">
+        <v>yedek-parca-atasman-transmikser-parcalari</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="str">
+        <v>yedek-parca-atasman-yer-alti-makinesi-parcalari</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="str">
+        <v>yem-mama/balik/yem</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="str">
+        <v>yem-mama/bocek/yem</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="str">
+        <v>yem-mama/kedi/mama</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="str">
+        <v>yem-mama/kemirgen/yem</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="str">
+        <v>yem-mama/kopek/mama</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="str">
+        <v>yem-mama/kucukbas-ve-buyukbas/yem</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="str">
+        <v>yem-mama/kumes-hayvanlari/yem</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="str">
+        <v>yem-mama/kus/yem</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="str">
+        <v>yem-mama/surungen/yem</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="str">
+        <v>yiyecek-icecek</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:A1422"/>
+  </ignoredErrors>
+</worksheet>
 </file>